--- a/rezultaty.xlsx
+++ b/rezultaty.xlsx
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -597,35 +597,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -667,35 +667,35 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -737,14 +737,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -793,14 +793,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -828,14 +828,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -849,14 +849,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -884,21 +884,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -954,21 +954,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -982,14 +982,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1031,14 +1031,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1122,14 +1122,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1192,28 +1192,28 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1269,21 +1269,21 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1297,28 +1297,28 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1346,14 +1346,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -1367,35 +1367,35 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1409,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -1458,49 +1458,49 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -1535,14 +1535,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -1570,21 +1570,21 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1612,35 +1612,35 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1689,14 +1689,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1843,63 +1843,63 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1969,14 +1969,14 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2004,28 +2004,28 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -2060,14 +2060,14 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2081,14 +2081,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2102,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -2144,42 +2144,42 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -2200,14 +2200,14 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -2221,21 +2221,21 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -2270,21 +2270,21 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -2319,14 +2319,14 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -2354,14 +2354,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -2438,14 +2438,14 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -2459,35 +2459,35 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2515,21 +2515,21 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2543,14 +2543,14 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>

--- a/rezultaty.xlsx
+++ b/rezultaty.xlsx
@@ -471,7 +471,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -485,21 +485,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -611,35 +611,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -737,14 +737,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -772,14 +772,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -793,35 +793,35 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -884,21 +884,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -975,35 +975,35 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -1017,21 +1017,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -1101,14 +1101,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -1122,28 +1122,28 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -1178,28 +1178,28 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -1227,14 +1227,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -1248,14 +1248,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1290,28 +1290,28 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -1325,35 +1325,35 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1388,14 +1388,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1409,21 +1409,21 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1444,21 +1444,21 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -1472,14 +1472,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1570,21 +1570,21 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1619,21 +1619,21 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1661,14 +1661,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1703,14 +1703,14 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -1780,14 +1780,14 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -1808,14 +1808,14 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1829,14 +1829,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1850,14 +1850,14 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1871,14 +1871,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1955,21 +1955,21 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -2032,21 +2032,21 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2074,14 +2074,14 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -2123,28 +2123,28 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2172,14 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2193,49 +2193,49 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2249,14 +2249,14 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -2312,14 +2312,14 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2361,21 +2361,21 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2438,21 +2438,21 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -2480,14 +2480,14 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -2515,14 +2515,14 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2543,14 +2543,14 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>

--- a/rezultaty.xlsx
+++ b/rezultaty.xlsx
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -548,14 +548,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -667,14 +667,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -702,14 +702,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -765,21 +765,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -835,21 +835,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -863,14 +863,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -891,14 +891,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -947,21 +947,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -975,35 +975,35 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1059,14 +1059,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1101,14 +1101,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1122,35 +1122,35 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1171,28 +1171,28 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1213,14 +1213,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1276,56 +1276,56 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -1388,14 +1388,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1500,28 +1500,28 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1535,14 +1535,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1619,21 +1619,21 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1689,14 +1689,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1710,28 +1710,28 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1759,14 +1759,14 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1808,14 +1808,14 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -1836,28 +1836,28 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1871,42 +1871,42 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1969,21 +1969,21 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -2074,14 +2074,14 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2130,28 +2130,28 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -2193,28 +2193,28 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -2249,21 +2249,21 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2312,21 +2312,21 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -2375,21 +2375,21 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -2480,21 +2480,21 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2515,14 +2515,14 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>

--- a/rezultaty.xlsx
+++ b/rezultaty.xlsx
@@ -450,7 +450,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -548,14 +548,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -611,14 +611,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -702,28 +702,28 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -758,14 +758,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -863,14 +863,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -947,14 +947,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -975,35 +975,35 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -1066,21 +1066,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1122,21 +1122,21 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1185,14 +1185,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1206,21 +1206,21 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1248,14 +1248,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -1507,21 +1507,21 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1570,21 +1570,21 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1612,21 +1612,21 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -1696,14 +1696,14 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -1752,14 +1752,14 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -1829,35 +1829,35 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -1899,21 +1899,21 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -2018,35 +2018,35 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -2137,28 +2137,28 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2172,14 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2207,14 +2207,14 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2263,14 +2263,14 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -2368,28 +2368,28 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -2403,14 +2403,14 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2445,28 +2445,28 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -2480,21 +2480,21 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2543,21 +2543,21 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2571,14 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>

--- a/rezultaty.xlsx
+++ b/rezultaty.xlsx
@@ -450,7 +450,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -499,42 +499,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -576,14 +576,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
@@ -611,14 +611,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -660,28 +660,28 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -702,21 +702,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -884,28 +884,28 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -954,14 +954,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -996,14 +996,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1017,14 +1017,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1038,14 +1038,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1080,21 +1080,21 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1108,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -1192,21 +1192,21 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1346,14 +1346,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1374,21 +1374,21 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1437,21 +1437,21 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1486,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -1570,21 +1570,21 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
@@ -1633,21 +1633,21 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -1745,14 +1745,14 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
     </row>
@@ -1766,14 +1766,14 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
     </row>
@@ -1878,14 +1878,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1955,21 +1955,21 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -1983,14 +1983,14 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
@@ -2011,35 +2011,35 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Miedź Legnica</t>
         </is>
       </c>
     </row>
@@ -2074,21 +2074,21 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Jagielonia Białystok</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
     </row>
@@ -2109,14 +2109,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2130,28 +2130,28 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
     </row>
@@ -2165,14 +2165,14 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2200,14 +2200,14 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -2228,14 +2228,14 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -2249,35 +2249,35 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2354,14 +2354,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
@@ -2382,14 +2382,14 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
@@ -2403,14 +2403,14 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Jagielonia Białystok</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
     </row>
@@ -2438,35 +2438,35 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
     </row>
@@ -2501,14 +2501,14 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2522,14 +2522,14 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Cracovia</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Miedź Legnica</t>
+          <t>Remis</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
     </row>
